--- a/data/trans_bre/P29A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P29A-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-17.34762856260602</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-9.639091710339637</v>
+        <v>-9.639091710339626</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3261112188318978</v>
@@ -649,7 +649,7 @@
         <v>-0.2955761420193334</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2364464249960297</v>
+        <v>-0.2364464249960295</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-24.04543926393227</v>
+        <v>-23.87680329737374</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-26.18471936927308</v>
+        <v>-25.35013153146273</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-24.05062256387091</v>
+        <v>-24.0543866018508</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-20.04165885025451</v>
+        <v>-19.73453314069886</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4204278096987905</v>
+        <v>-0.4178614838887421</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4250800144807662</v>
+        <v>-0.4182365534948984</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3878740362645596</v>
+        <v>-0.3936650073705948</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4301532494219873</v>
+        <v>-0.4278278703310657</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-11.68596453688081</v>
+        <v>-11.5283389458501</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-12.93256473926102</v>
+        <v>-12.24320438459373</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-9.813820024241201</v>
+        <v>-9.761292728443257</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.4918582916692766</v>
+        <v>0.9510645160856739</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.2276328648148586</v>
+        <v>-0.2230969993156242</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2326433726591617</v>
+        <v>-0.2305125544589138</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.1804568458704799</v>
+        <v>-0.1838253759644841</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.0108273929844298</v>
+        <v>0.03716750216954779</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-37.47776596165428</v>
+        <v>-37.98589566655398</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-37.9049322289741</v>
+        <v>-37.78016474515738</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-26.56021276501365</v>
+        <v>-26.10207937434807</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-28.17204916267983</v>
+        <v>-29.1936397298789</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5611676913359005</v>
+        <v>-0.5639012359556806</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5801000376270425</v>
+        <v>-0.5759621219455847</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4231107612234931</v>
+        <v>-0.4210897282452236</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5075978880739223</v>
+        <v>-0.5141553152342424</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-26.94305073402786</v>
+        <v>-27.4988760219901</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-26.87876040741586</v>
+        <v>-27.1100773602078</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-14.58467965817286</v>
+        <v>-14.74122005540461</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-14.07075821547387</v>
+        <v>-13.9711135436601</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.4304787483114957</v>
+        <v>-0.4319206253060446</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4432918929644068</v>
+        <v>-0.4495442024552277</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2563155389640604</v>
+        <v>-0.2588315749261095</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.293550151178933</v>
+        <v>-0.2967699396773044</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-27.1575383433091</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-23.09044101296618</v>
+        <v>-23.09044101296617</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4951531719551266</v>
@@ -849,7 +849,7 @@
         <v>-0.4307746937784422</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.4574470303832567</v>
+        <v>-0.4574470303832564</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-35.19141212145198</v>
+        <v>-34.86185565168019</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-36.29145175436759</v>
+        <v>-36.0373988607746</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-32.46407418789045</v>
+        <v>-32.45590846389499</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-27.85079138184658</v>
+        <v>-28.34119685377589</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.566561084036004</v>
+        <v>-0.5587887113705394</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5787722600283148</v>
+        <v>-0.5793646849355959</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.495499300698066</v>
+        <v>-0.4958974389693725</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5217709093475051</v>
+        <v>-0.5290145950786419</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-24.07685426858028</v>
+        <v>-23.89965176109076</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-25.45652139772743</v>
+        <v>-25.05839639864902</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-21.78106468714551</v>
+        <v>-21.70948694362304</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-17.21429703551955</v>
+        <v>-17.7471211174155</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.4220430674942486</v>
+        <v>-0.4209717609120958</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.4406983648455233</v>
+        <v>-0.4389485623961071</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.3567056238664913</v>
+        <v>-0.3601665236451818</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.3721641868082063</v>
+        <v>-0.3786194943363802</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-38.46762021293295</v>
+        <v>-38.56796460227934</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-35.59466728772989</v>
+        <v>-35.25707850396812</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-26.55209211696722</v>
+        <v>-27.08420464884236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-26.40568023500641</v>
+        <v>-26.75318693368652</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6301513667116093</v>
+        <v>-0.6342133169238813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5593632911614935</v>
+        <v>-0.5599011669892949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4305260091864665</v>
+        <v>-0.4357991309689378</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4953833884115044</v>
+        <v>-0.4962717665695881</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-26.70422046749095</v>
+        <v>-26.48937387278775</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-24.24203575608466</v>
+        <v>-23.6196454215302</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-14.56657502477451</v>
+        <v>-15.31454460746154</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-17.28052975389741</v>
+        <v>-17.09411495715819</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.4863704254505736</v>
+        <v>-0.4783209356048175</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4139339524021438</v>
+        <v>-0.4068490091947856</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2618461345295522</v>
+        <v>-0.2661943793151427</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3630852342752911</v>
+        <v>-0.3522461947101975</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-33.06660628445073</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-21.99646013958495</v>
+        <v>-21.99646013958494</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.6107538324406858</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-33.41289981750791</v>
+        <v>-32.93033281455649</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-35.60953381343022</v>
+        <v>-35.29042667791602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-39.13908189619071</v>
+        <v>-39.41071062856779</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-26.85322754367309</v>
+        <v>-27.27832605678983</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.699906972436464</v>
+        <v>-0.6942969397423362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6583748822366424</v>
+        <v>-0.6617315499841047</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6456489007292957</v>
+        <v>-0.6474113060386785</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.545755279605166</v>
+        <v>-0.5483089049167251</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-21.03521805848435</v>
+        <v>-20.76402724797828</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-21.70653447701386</v>
+        <v>-21.88965709801822</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-26.34522915603248</v>
+        <v>-27.05715978544474</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-17.43213960037749</v>
+        <v>-17.87913222488623</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.504807223360655</v>
+        <v>-0.5076336119919983</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.4644476931347118</v>
+        <v>-0.4731511952737265</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4864540202366761</v>
+        <v>-0.493642290345948</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.3983155617829365</v>
+        <v>-0.4028287472430305</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-40.81066379727741</v>
+        <v>-40.73061942858462</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-41.56953326672567</v>
+        <v>-41.16686971763731</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-40.11611340764457</v>
+        <v>-39.49162018567662</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-37.77404132800557</v>
+        <v>-38.14636547189249</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8713190567611591</v>
+        <v>-0.8719480661064332</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8082520076123767</v>
+        <v>-0.8113735871232823</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7404534453329688</v>
+        <v>-0.7361087256815226</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6929195229625991</v>
+        <v>-0.6991804691903062</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-28.48104621250505</v>
+        <v>-28.44404701650192</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-26.35553048676667</v>
+        <v>-27.09416923336718</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-26.43615353626683</v>
+        <v>-26.2717468920709</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-27.83828982641647</v>
+        <v>-27.91963183805131</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.7316356184288737</v>
+        <v>-0.7347485554027376</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.615788008796506</v>
+        <v>-0.6311303869809897</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.567593272407416</v>
+        <v>-0.5598536058266328</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.5730468811384504</v>
+        <v>-0.5806857198550343</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-27.6253559396297</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-28.46838691071741</v>
+        <v>-28.4683869107174</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.8615021302209916</v>
@@ -1249,7 +1249,7 @@
         <v>-0.7810896614233558</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.8067184071846809</v>
+        <v>-0.8067184071846807</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-36.33503804083784</v>
+        <v>-36.12901752925467</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-35.05686631301577</v>
+        <v>-34.42968454061425</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-34.31726305310633</v>
+        <v>-34.15258661860296</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-32.95981890017653</v>
+        <v>-33.49668936322318</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.9258907708201328</v>
+        <v>-0.9286435012011192</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.9072707213130031</v>
+        <v>-0.91317951425674</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.8613318944975127</v>
+        <v>-0.861902868511442</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.854638525151298</v>
+        <v>-0.8579726598174512</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-21.95107384070685</v>
+        <v>-22.43822385457966</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-20.74749832424026</v>
+        <v>-20.915147108522</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-21.29165943206384</v>
+        <v>-21.03682081946284</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-22.99618602815315</v>
+        <v>-23.59186366872884</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.7568403111628066</v>
+        <v>-0.7640368104998161</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.7377511178300326</v>
+        <v>-0.7480468328197467</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.6738417377854395</v>
+        <v>-0.6542592408278446</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.7351104472387479</v>
+        <v>-0.7348509891578713</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-26.39188510932822</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-23.36939837237259</v>
+        <v>-23.36939837237258</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.5537668140592789</v>
@@ -1349,7 +1349,7 @@
         <v>-0.4620034145232896</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.489607373888893</v>
+        <v>-0.4896073738888929</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-32.9039712831316</v>
+        <v>-32.57099024360622</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-32.6461799959815</v>
+        <v>-32.71049786829571</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-28.73630851583644</v>
+        <v>-28.70828706744075</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-25.62667997413068</v>
+        <v>-25.58654151399016</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5862193734478314</v>
+        <v>-0.583005567401313</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.573480537173361</v>
+        <v>-0.5713751575156462</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4934016941741268</v>
+        <v>-0.4955648896092524</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5228484557706783</v>
+        <v>-0.5233637706404728</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-28.10554821506487</v>
+        <v>-28.19905703065165</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-27.87298053237454</v>
+        <v>-28.11104512893478</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-23.85110666265632</v>
+        <v>-24.01209933450884</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-21.22723364022518</v>
+        <v>-21.03587161065569</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.5215860593631899</v>
+        <v>-0.5233598355760218</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.5110700296360722</v>
+        <v>-0.5122558690458842</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.4274578542186138</v>
+        <v>-0.4295290886081692</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.4559122530383359</v>
+        <v>-0.4569316400449239</v>
       </c>
     </row>
     <row r="28">
